--- a/L00_Funciones_Excel.xlsx
+++ b/L00_Funciones_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETECOM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EF48A6-9DB4-4500-8686-46658B78AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB37B64-FF4D-4438-9823-8A0ED3CD5B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
         <f>SUM(C6:N6)</f>
         <v>62321</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="38">
         <f>AVERAGE(C6:N6)</f>
         <v>5193.416666666667</v>
       </c>
@@ -1370,7 +1370,7 @@
         <f t="shared" ref="O7:O15" si="0">SUM(C7:N7)</f>
         <v>55079</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="38">
         <f t="shared" ref="P7:P15" si="1">AVERAGE(C7:N7)</f>
         <v>4589.916666666667</v>
       </c>
@@ -1423,7 +1423,7 @@
         <f t="shared" si="0"/>
         <v>43747</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="38">
         <f t="shared" si="1"/>
         <v>3645.5833333333335</v>
       </c>
@@ -1476,7 +1476,7 @@
         <f t="shared" si="0"/>
         <v>62476</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="38">
         <f t="shared" si="1"/>
         <v>5206.333333333333</v>
       </c>
@@ -1529,7 +1529,7 @@
         <f t="shared" si="0"/>
         <v>61422</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="38">
         <f t="shared" si="1"/>
         <v>5118.5</v>
       </c>
@@ -1582,7 +1582,7 @@
         <f t="shared" si="0"/>
         <v>55047</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="38">
         <f t="shared" si="1"/>
         <v>4587.25</v>
       </c>
@@ -1635,7 +1635,7 @@
         <f t="shared" si="0"/>
         <v>54081</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="38">
         <f t="shared" si="1"/>
         <v>4506.75</v>
       </c>
@@ -1688,7 +1688,7 @@
         <f t="shared" si="0"/>
         <v>77556</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="38">
         <f t="shared" si="1"/>
         <v>6463</v>
       </c>
@@ -1741,7 +1741,7 @@
         <f t="shared" si="0"/>
         <v>61403</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="38">
         <f t="shared" si="1"/>
         <v>5116.916666666667</v>
       </c>
@@ -1794,7 +1794,7 @@
         <f t="shared" si="0"/>
         <v>47284</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="38">
         <f t="shared" si="1"/>
         <v>3940.3333333333335</v>
       </c>
@@ -1871,55 +1871,55 @@
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="38">
         <f>AVERAGE(C6:C15)</f>
         <v>5655.1</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="38">
         <f t="shared" ref="D17:O17" si="3">AVERAGE(D6:D15)</f>
         <v>6611.5</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="38">
         <f t="shared" si="3"/>
         <v>5543.1</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="38">
         <f t="shared" si="3"/>
         <v>4569.7</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="38">
         <f t="shared" si="3"/>
         <v>3667</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="38">
         <f t="shared" si="3"/>
         <v>4267.2</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="38">
         <f t="shared" si="3"/>
         <v>3425.1</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="38">
         <f t="shared" si="3"/>
         <v>4929.8</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="38">
         <f t="shared" si="3"/>
         <v>3290.2</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="38">
         <f t="shared" si="3"/>
         <v>5797.7</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="38">
         <f t="shared" si="3"/>
         <v>4302.6000000000004</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="38">
         <f t="shared" si="3"/>
         <v>5982.6</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="38">
         <f t="shared" si="3"/>
         <v>58041.599999999999</v>
       </c>

--- a/L00_Funciones_Excel.xlsx
+++ b/L00_Funciones_Excel.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETECOM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB37B64-FF4D-4438-9823-8A0ED3CD5B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035546B7-F8BF-4B92-BE26-BA737EBE076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problema 1" sheetId="3" r:id="rId1"/>
     <sheet name="Problema 2" sheetId="1" r:id="rId2"/>
     <sheet name="Problema 3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -372,18 +385,6 @@
     <t>N° de notas iguales o superiores a 4,0</t>
   </si>
   <si>
-    <t>b) Promedio de unidades vendidas cada mes.</t>
-  </si>
-  <si>
-    <t>c) Total de unidades vendidas en el año de cada producto.</t>
-  </si>
-  <si>
-    <t>d) Promedio de unidades vendidas en el año de cada producto.</t>
-  </si>
-  <si>
-    <t>g) Porcentaje de unidades vendidas en el año por producto.</t>
-  </si>
-  <si>
     <t>e) Determinar el producto y el mes en el cual se vendió la mayor cantidad de unidades en el año.</t>
   </si>
   <si>
@@ -438,7 +439,19 @@
     <t>b) Transforme las cantidades obtenidas en la tabla anterior a porcentajes del total general. ¿Qué porcentaje de personas tienen género masculino?</t>
   </si>
   <si>
-    <t>a) Total de unidades vendidas cada mes.</t>
+    <t>a) Total de unidades vendidas cada mes. ✔</t>
+  </si>
+  <si>
+    <t>b) Promedio de unidades vendidas cada mes. ✔</t>
+  </si>
+  <si>
+    <t>c) Total de unidades vendidas en el año de cada producto. ✔</t>
+  </si>
+  <si>
+    <t>d) Promedio de unidades vendidas en el año de cada producto. ✔</t>
+  </si>
+  <si>
+    <t>g) Porcentaje de unidades vendidas en el año por producto. ✔</t>
   </si>
 </sst>
 </file>
@@ -700,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,10 +727,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -726,55 +736,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,19 +780,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -824,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +829,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,9 +849,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -905,9 +889,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,26 +924,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,26 +959,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1188,88 +1138,89 @@
   <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="B3" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1313,15 +1264,15 @@
       <c r="N6" s="2">
         <v>3586</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="23">
         <f>SUM(C6:N6)</f>
         <v>62321</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="25">
         <f>AVERAGE(C6:N6)</f>
         <v>5193.416666666667</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="30">
         <f>O6/O16</f>
         <v>0.10737298765023708</v>
       </c>
@@ -1366,15 +1317,15 @@
       <c r="N7" s="2">
         <v>3813</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="23">
         <f t="shared" ref="O7:O15" si="0">SUM(C7:N7)</f>
         <v>55079</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="25">
         <f t="shared" ref="P7:P15" si="1">AVERAGE(C7:N7)</f>
         <v>4589.916666666667</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="30">
         <f>O7/O16</f>
         <v>9.4895729959201675E-2</v>
       </c>
@@ -1419,15 +1370,15 @@
       <c r="N8" s="2">
         <v>6932</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="23">
         <f t="shared" si="0"/>
         <v>43747</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="25">
         <f t="shared" si="1"/>
         <v>3645.5833333333335</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="30">
         <f>O8/O16</f>
         <v>7.5371802293527398E-2</v>
       </c>
@@ -1445,7 +1396,7 @@
       <c r="E9" s="2">
         <v>6560</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="16">
         <v>9968</v>
       </c>
       <c r="G9" s="2">
@@ -1472,15 +1423,15 @@
       <c r="N9" s="2">
         <v>9960</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="23">
         <f t="shared" si="0"/>
         <v>62476</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="25">
         <f t="shared" si="1"/>
         <v>5206.333333333333</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="30">
         <f>O9/O16</f>
         <v>0.10764003749035175</v>
       </c>
@@ -1525,15 +1476,15 @@
       <c r="N10" s="2">
         <v>8716</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="23">
         <f t="shared" si="0"/>
         <v>61422</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="25">
         <f t="shared" si="1"/>
         <v>5118.5</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="30">
         <f>O10/O16</f>
         <v>0.10582409857757195</v>
       </c>
@@ -1569,7 +1520,7 @@
       <c r="K11" s="2">
         <v>1874</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="16">
         <v>160</v>
       </c>
       <c r="M11" s="2">
@@ -1578,15 +1529,15 @@
       <c r="N11" s="2">
         <v>6707</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="23">
         <f t="shared" si="0"/>
         <v>55047</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="25">
         <f t="shared" si="1"/>
         <v>4587.25</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="30">
         <f>O11/O16</f>
         <v>9.4840597088984457E-2</v>
       </c>
@@ -1631,15 +1582,15 @@
       <c r="N12" s="2">
         <v>831</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="23">
         <f t="shared" si="0"/>
         <v>54081</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="25">
         <f t="shared" si="1"/>
         <v>4506.75</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="30">
         <f>O12/O16</f>
         <v>9.3176273569302012E-2</v>
       </c>
@@ -1684,15 +1635,15 @@
       <c r="N13" s="2">
         <v>7837</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="23">
         <f t="shared" si="0"/>
         <v>77556</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="25">
         <f t="shared" si="1"/>
         <v>6463</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="30">
         <f>O13/O16</f>
         <v>0.13362140258021832</v>
       </c>
@@ -1737,15 +1688,15 @@
       <c r="N14" s="2">
         <v>6259</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="23">
         <f t="shared" si="0"/>
         <v>61403</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="25">
         <f t="shared" si="1"/>
         <v>5116.916666666667</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="30">
         <f>O14/O16</f>
         <v>0.10579136343588047</v>
       </c>
@@ -1790,166 +1741,166 @@
       <c r="N15" s="2">
         <v>5185</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="23">
         <f t="shared" si="0"/>
         <v>47284</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="25">
         <f t="shared" si="1"/>
         <v>3940.3333333333335</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="30">
         <f>O15/O16</f>
         <v>8.1465707354724887E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="23">
         <f>SUM(C6:C15)</f>
         <v>56551</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="23">
         <f t="shared" ref="D16:O16" si="2">SUM(D6:D15)</f>
         <v>66115</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="23">
         <f t="shared" si="2"/>
         <v>55431</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="23">
         <f t="shared" si="2"/>
         <v>45697</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="23">
         <f t="shared" si="2"/>
         <v>36670</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="23">
         <f t="shared" si="2"/>
         <v>42672</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="23">
         <f t="shared" si="2"/>
         <v>34251</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="23">
         <f t="shared" si="2"/>
         <v>49298</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="23">
         <f t="shared" si="2"/>
         <v>32902</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="23">
         <f t="shared" si="2"/>
         <v>57977</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="23">
         <f t="shared" si="2"/>
         <v>43026</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="23">
         <f t="shared" si="2"/>
         <v>59826</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="23">
         <f t="shared" si="2"/>
         <v>580416</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="62">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="32">
         <f>SUM(Q6:Q15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="25">
         <f>AVERAGE(C6:C15)</f>
         <v>5655.1</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="25">
         <f t="shared" ref="D17:O17" si="3">AVERAGE(D6:D15)</f>
         <v>6611.5</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="25">
         <f t="shared" si="3"/>
         <v>5543.1</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="25">
         <f t="shared" si="3"/>
         <v>4569.7</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="25">
         <f t="shared" si="3"/>
         <v>3667</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="25">
         <f t="shared" si="3"/>
         <v>4267.2</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="25">
         <f t="shared" si="3"/>
         <v>3425.1</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="25">
         <f t="shared" si="3"/>
         <v>4929.8</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="25">
         <f t="shared" si="3"/>
         <v>3290.2</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="25">
         <f t="shared" si="3"/>
         <v>5797.7</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="25">
         <f t="shared" si="3"/>
         <v>4302.6000000000004</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="25">
         <f t="shared" si="3"/>
         <v>5982.6</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="25">
         <f t="shared" si="3"/>
         <v>58041.599999999999</v>
       </c>
-      <c r="P17" s="18"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:16" s="22" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="47" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -1958,7 +1909,7 @@
     <row r="25" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="47" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -1968,7 +1919,7 @@
     <row r="27" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -1977,43 +1928,29 @@
     </row>
     <row r="29" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-    </row>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="28"/>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="B34" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="101" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
@@ -2022,52 +1959,52 @@
     </row>
     <row r="102" spans="2:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="2:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="H103" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M103" s="10" t="s">
+      <c r="M103" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N103" s="10" t="s">
+      <c r="N103" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O103" s="10" t="s">
+      <c r="O103" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P103" s="13" t="s">
+      <c r="P103" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q103" s="13" t="s">
+      <c r="Q103" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2657,7 +2594,6 @@
         <f t="shared" si="4"/>
         <v>580416</v>
       </c>
-      <c r="P114" s="15"/>
     </row>
     <row r="115" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
@@ -2715,18 +2651,11 @@
         <f t="shared" si="8"/>
         <v>58041</v>
       </c>
-      <c r="P115" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B34:F34"/>
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.1811023622047245" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2746,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:O98"/>
+  <dimension ref="B2:O98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -2763,36 +2692,31 @@
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-    </row>
     <row r="2" spans="2:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="B4" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J5" s="25"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="2:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2824,38 +2748,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2866,29 +2790,29 @@
       <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4.5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>5.2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>5.2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>5.5</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="9">
+      <c r="J8" s="24"/>
+      <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -2897,31 +2821,30 @@
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>3.8</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>4.2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>4.8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>6.1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>5.5</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>6</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="9">
+      <c r="J9" s="24"/>
+      <c r="K9" s="8">
         <v>4.5</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="42"/>
+      <c r="L9" s="24"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -2930,31 +2853,29 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>5.3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>6.1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>7</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>4.5</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>4</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="9">
+      <c r="J10" s="24"/>
+      <c r="K10" s="8">
         <v>3.8</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -2963,31 +2884,31 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>6.1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>7</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>7</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>4.5</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>4</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="9">
+      <c r="J11" s="24"/>
+      <c r="K11" s="8">
         <v>4.2</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="L11" s="24"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -2996,29 +2917,29 @@
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>3.7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>6</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>7</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>4</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="9">
+      <c r="J12" s="24"/>
+      <c r="K12" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -3027,29 +2948,29 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>5.9</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>6.3</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>6</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>5.5</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>6</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="9">
+      <c r="J13" s="24"/>
+      <c r="K13" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -3058,29 +2979,29 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>6.2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>3.8</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>6.5</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>6</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>6</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="9">
+      <c r="J14" s="24"/>
+      <c r="K14" s="8">
         <v>3.4</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -3089,29 +3010,29 @@
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>4.3</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>3.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>6.4</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>7</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>6.5</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="9">
+      <c r="J15" s="24"/>
+      <c r="K15" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -3120,29 +3041,29 @@
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>4</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>5.8</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>5.2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>6.5</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>7</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>5</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="9">
+      <c r="J16" s="24"/>
+      <c r="K16" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -3151,185 +3072,185 @@
       <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>3.7</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>5.3</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>6</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>7</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>7</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>5</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="9">
+      <c r="J17" s="24"/>
+      <c r="K17" s="8">
         <v>3.7</v>
       </c>
-      <c r="L17" s="37"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="24">
         <f>AVERAGE(D8:D17)</f>
         <v>4.7500000000000009</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="24">
         <f t="shared" ref="E18:I18" si="0">AVERAGE(E8:E17)</f>
         <v>5.1199999999999992</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="24">
         <f t="shared" si="0"/>
         <v>6.4699999999999989</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="24">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="24">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3373,31 +3294,31 @@
       <c r="C83" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K83" s="12" t="s">
+      <c r="K83" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L83" s="12" t="s">
+      <c r="L83" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3408,29 +3329,29 @@
       <c r="C84" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="8">
         <v>4.5</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <v>5.2</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="8">
         <v>5.2</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="8">
         <v>6</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="8">
         <v>5.5</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J84" s="5">
         <f>ROUND(D84*$D$6+E84*$E$6+F84*$F$6+G84*$G$6+H84*$H$6+I84*$I$6,1)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K84" s="8">
         <v>5</v>
       </c>
       <c r="L84" s="5">
@@ -3445,29 +3366,29 @@
       <c r="C85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>3.8</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>4.2</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="8">
         <v>4.8</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="8">
         <v>6.1</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="8">
         <v>5.5</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="8">
         <v>6</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J85" s="5">
         <f t="shared" ref="J85:J93" si="1">ROUND(D85*$D$6+E85*$E$6+F85*$F$6+G85*$G$6+H85*$H$6+I85*$I$6,1)</f>
         <v>4.8</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85" s="8">
         <v>4.5</v>
       </c>
       <c r="L85" s="5">
@@ -3482,29 +3403,29 @@
       <c r="C86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="8">
         <v>5.3</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="8">
         <v>6.1</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="8">
         <v>7</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="8">
         <v>4.5</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="8">
         <v>4</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J86" s="5">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
-      <c r="K86" s="9">
+      <c r="K86" s="8">
         <v>3.8</v>
       </c>
       <c r="L86" s="5">
@@ -3519,29 +3440,29 @@
       <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="8">
         <v>6.1</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>5</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="8">
         <v>7</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="8">
         <v>7</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="8">
         <v>4.5</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="8">
         <v>4</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="5">
         <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K87" s="8">
         <v>4.2</v>
       </c>
       <c r="L87" s="5">
@@ -3556,29 +3477,29 @@
       <c r="C88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="8">
         <v>3.7</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>6</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="8">
         <v>6</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="8">
         <v>7</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="8">
         <v>5</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="8">
         <v>4</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="5">
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="L88" s="5">
@@ -3593,29 +3514,29 @@
       <c r="C89" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="8">
         <v>5.9</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>6.3</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="8">
         <v>4</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="8">
         <v>6</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="8">
         <v>5.5</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="8">
         <v>6</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="5">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K89" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="L89" s="5">
@@ -3630,29 +3551,29 @@
       <c r="C90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="8">
         <v>6.2</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="8">
         <v>3.8</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="8">
         <v>6.5</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="8">
         <v>6</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="8">
         <v>6</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="5">
         <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
-      <c r="K90" s="9">
+      <c r="K90" s="8">
         <v>3.4</v>
       </c>
       <c r="L90" s="5">
@@ -3667,29 +3588,29 @@
       <c r="C91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="8">
         <v>4.3</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>3.5</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="8">
         <v>6.4</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="8">
         <v>7</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="8">
         <v>6.5</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K91" s="9">
+      <c r="K91" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="L91" s="5">
@@ -3704,29 +3625,29 @@
       <c r="C92" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>4</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>5.8</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="8">
         <v>5.2</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="8">
         <v>6.5</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="8">
         <v>7</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="8">
         <v>5</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="5">
         <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="L92" s="5">
@@ -3741,29 +3662,29 @@
       <c r="C93" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>3.7</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>5.3</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="8">
         <v>6</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="8">
         <v>7</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="8">
         <v>7</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="8">
         <v>5</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J93" s="5">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="8">
         <v>3.7</v>
       </c>
       <c r="L93" s="5">
@@ -3772,39 +3693,38 @@
       </c>
     </row>
     <row r="94" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
       <c r="C94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="11">
         <f t="shared" ref="D94:K94" si="3">ROUND(AVERAGE(D84:D93),1)</f>
         <v>4.8</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="11">
         <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="11">
         <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="11">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="H94" s="16">
+      <c r="H94" s="11">
         <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I94" s="11">
         <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
-      <c r="J94" s="16">
+      <c r="J94" s="11">
         <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="11">
         <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
@@ -3817,39 +3737,39 @@
       <c r="C95" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="11">
         <f>MAX(D84:D93)</f>
         <v>6.2</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="11">
         <f t="shared" ref="E95:L95" si="4">MAX(E84:E93)</f>
         <v>6.3</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H95" s="16">
+      <c r="H95" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I95" s="11">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="J95" s="16">
+      <c r="J95" s="11">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="11">
         <f t="shared" si="4"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="L95" s="16">
+      <c r="L95" s="11">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
@@ -3858,45 +3778,45 @@
       <c r="C96" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="11">
         <f>MIN(D84:D93)</f>
         <v>3.7</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="11">
         <f t="shared" ref="E96:L96" si="5">MIN(E84:E93)</f>
         <v>3.5</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="11">
         <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="11">
         <f t="shared" si="5"/>
         <v>5.2</v>
       </c>
-      <c r="H96" s="16">
+      <c r="H96" s="11">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I96" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J96" s="16">
+      <c r="J96" s="11">
         <f t="shared" si="5"/>
         <v>4.8</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="11">
         <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="L96" s="16">
+      <c r="L96" s="11">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="97" spans="3:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="5">
@@ -3937,7 +3857,7 @@
       </c>
     </row>
     <row r="98" spans="3:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="5">
@@ -4016,55 +3936,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="32" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="32"/>
+    <col min="1" max="1" width="6.85546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18" style="19" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="A4"/>
+      <c r="B4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>83</v>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,7 +3995,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -4089,7 +4009,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -4103,7 +4023,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -4117,7 +4037,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -4131,7 +4051,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -4145,7 +4065,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
@@ -4159,7 +4079,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -4173,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2">
         <v>3</v>
@@ -4187,7 +4107,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -4201,7 +4121,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
@@ -4215,7 +4135,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -4229,7 +4149,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -4243,7 +4163,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -4257,7 +4177,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -4271,136 +4191,136 @@
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="46"/>
+      <c r="B27" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53"/>
+      <c r="B42" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4418,21 +4338,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB459640B0867F4A80F45052C31197CE" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="63df99b9cde003c7a0d8379f430065aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d45290b7f7c720e3db0a128a19431186">
     <xsd:element name="properties">
@@ -4481,10 +4386,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4A8ED2-4A4C-4E4C-BE2F-BB5D7A1E06A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21CF89D5-D13A-4A97-B60D-F643F94DA42B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4504,16 +4431,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21CF89D5-D13A-4A97-B60D-F643F94DA42B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4A8ED2-4A4C-4E4C-BE2F-BB5D7A1E06A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>